--- a/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Init" sheetId="1" r:id="rId1"/>
     <sheet name="Picking" sheetId="2" r:id="rId2"/>
     <sheet name="Shocking" sheetId="4" r:id="rId3"/>
-    <sheet name="HU Transfer" sheetId="3" r:id="rId4"/>
+    <sheet name="Allocations" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
     <sheet name="Picking" sheetId="2" r:id="rId2"/>
-    <sheet name="Shocking" sheetId="4" r:id="rId3"/>
-    <sheet name="Allocations" sheetId="3" r:id="rId4"/>
+    <sheet name="Allocations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -321,120 +320,6 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Eg. Match the column header to count code selected in app. Use as many columns as needed.  Value should be the counts.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Match the column header to count code selected in app. Use as many columns as needed.  Value should be the counts.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. AB, CD</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. BSR</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Mandatory set equal to cross if needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Eg. EQU, Bonell, Odell, etc.</t>
         </r>
       </text>
@@ -496,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Stock</t>
   </si>
@@ -1012,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,65 +951,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K3"/>
+  <dimension ref="A2:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
     <sheet name="Picking" sheetId="2" r:id="rId2"/>
     <sheet name="Allocations" sheetId="3" r:id="rId3"/>
+    <sheet name="Temperatures" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -109,19 +110,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. AB, CD</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -193,7 +181,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Eg. Mandatory set equal to cross if needed.</t>
+          <t>If filled, the trough column must also be filled.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -206,33 +204,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Can be either a drawer (eg. 4.3) or a cup (eg. 4.3.1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Eg. Match the column header to count code selected in app. Use as many columns as needed.  Value should be the counts.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Match the column header to count code selected in app. Use as many columns as needed.  Value should be the counts.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. AB, CD</t>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Day picks were made</t>
         </r>
       </text>
     </comment>
@@ -307,7 +305,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Eg. Mandatory set equal to cross if needed.</t>
+          <t>If filled, the trough column must also be filled.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -320,24 +328,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Can be either a drawer (eg. 4.3) or a cup (eg. 4.3.1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Eg. EQU, Bonell, Odell, etc.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>If filled, Trough col must be filled in as well</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,16 +384,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. AB, CD</t>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1</t>
         </r>
       </text>
     </comment>
@@ -381,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Stock</t>
   </si>
@@ -413,9 +470,6 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>Crew</t>
-  </si>
-  <si>
     <t>End Trough</t>
   </si>
   <si>
@@ -440,10 +494,28 @@
     <t>Tray</t>
   </si>
   <si>
-    <t>PICK TYPE</t>
-  </si>
-  <si>
     <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Cleaning Losses</t>
+  </si>
+  <si>
+    <t>Shocking (Y/N)</t>
+  </si>
+  <si>
+    <t>PICK CODE</t>
+  </si>
+  <si>
+    <t>Start Container</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature(C)</t>
   </si>
 </sst>
 </file>
@@ -546,12 +618,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,6 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J3"/>
+  <dimension ref="A3:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +930,7 @@
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -868,22 +944,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -895,10 +968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K3"/>
+  <dimension ref="A2:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +980,18 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="5"/>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -921,28 +1005,46 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -954,7 +1056,7 @@
   <dimension ref="A2:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,12 +1071,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K2" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -990,54 +1097,98 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K2:N2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -221,16 +221,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Day picks were made</t>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date picks were made.
+Format: YYYY-mmm-dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Date picks were made.
+Format: YYYY-mmm-dd</t>
         </r>
       </text>
     </comment>
@@ -438,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Stock</t>
   </si>
@@ -516,6 +531,18 @@
   </si>
   <si>
     <t>Temperature(C)</t>
+  </si>
+  <si>
+    <t>1999-Jan-1</t>
+  </si>
+  <si>
+    <t>1999-Jan-2</t>
+  </si>
+  <si>
+    <t>First Hatch Observed (Y/N)</t>
+  </si>
+  <si>
+    <t>100% Hatch Observed (Y/N)</t>
   </si>
 </sst>
 </file>
@@ -618,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -627,6 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,7 +664,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,30 +997,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P3"/>
+  <dimension ref="A2:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F2" s="6" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="5"/>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1023,23 +1058,26 @@
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1">
-        <v>5</v>
-      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1071,17 +1109,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="L2" s="6" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="L2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1154,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1184,7 +1222,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="9"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
@@ -655,6 +655,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,8 +666,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,7 +1000,7 @@
   <dimension ref="A2:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,11 +1016,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="5"/>
       <c r="N2" t="s">
         <v>20</v>
@@ -1074,10 +1074,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K4" s="11"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="10"/>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1109,17 +1109,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="L2" s="7" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">

--- a/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063316FE-BC96-47EB-96C4-92C7F7D1F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -26,434 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. BSR</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mandatory, set equal to cross if needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fecundity Photo Count, Optional</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. BSR</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If filled, the trough column must also be filled.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Can be either a drawer (eg. 4.3) or a cup (eg. 4.3.1)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Match the column header to count code selected in app. Use as many columns as needed.  Value should be the counts.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Date picks were made.
-Format: YYYY-mmm-dd</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Date picks were made.
-Format: YYYY-mmm-dd</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. BSR</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If filled, the trough column must also be filled.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Can be either a drawer (eg. 4.3) or a cup (eg. 4.3.1)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. EQU, Bonell, Odell, etc.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If filled, Trough col must be filled in as well</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Can be either a drawer (eg. 4.3) or a cup (eg. 4.3.1)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to Y if entire tray is moving and N/blank if only taking a selection of eggs from the tray. </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Stock</t>
   </si>
@@ -543,13 +118,88 @@
   </si>
   <si>
     <t>100% Hatch Observed (Y/N)</t>
+  </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Eg. BSR, SJR, SMA</t>
+  </si>
+  <si>
+    <t>Cross number. Can duplicate on rows if cross is split into multiple trays.</t>
+  </si>
+  <si>
+    <t>Trough name</t>
+  </si>
+  <si>
+    <t>Mandatory, set equal to cross if necessary.</t>
+  </si>
+  <si>
+    <t>Optional. Fecundity pohto count.</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Cross number.</t>
+  </si>
+  <si>
+    <t>Optional. Trough name.</t>
+  </si>
+  <si>
+    <t>Optional. If filled, the trough column must also be filled.</t>
+  </si>
+  <si>
+    <t>Optional. Can be either a drawer (eg. 4.3) or a cup (eg. 4.3.1)</t>
+  </si>
+  <si>
+    <t>Optional (Y/N)</t>
+  </si>
+  <si>
+    <t>Eg. Match the column header to count code selected in app. Use as many columns as needed.  Value should be the counts.</t>
+  </si>
+  <si>
+    <t>Optional. Y/N</t>
+  </si>
+  <si>
+    <t>Optional columns. Column header is date of picking in 1999-Jan-1 format. Values are loss counts.</t>
+  </si>
+  <si>
+    <t>Optional. Eg. Odell, EQU, etc. Must match animal detail subjective code in database.</t>
+  </si>
+  <si>
+    <t>Number of eggs</t>
+  </si>
+  <si>
+    <t>Optional.</t>
+  </si>
+  <si>
+    <t>Count of loss during transfer, optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set to Y if entire tray is moving and N/blank if only taking a selection of eggs from the tray. </t>
+  </si>
+  <si>
+    <t>Optional. Tank name.</t>
+  </si>
+  <si>
+    <t>Optional. Eg. 13:01</t>
+  </si>
+  <si>
+    <t>Temperature in Celcius. Eg. 12.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,16 +208,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -584,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -641,20 +285,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,6 +332,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -945,288 +625,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F2" s="9" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="5"/>
-      <c r="N2" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="13"/>
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="3" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K4" s="8"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K6" s="7"/>
+      <c r="K6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="R3" sqref="A3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F2" s="9" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="L2" s="9" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="6"/>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-egg_development.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063316FE-BC96-47EB-96C4-92C7F7D1F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A4776-DF05-4D43-BD8E-6144E6CFCA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Stock</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Cross number. Can duplicate on rows if cross is split into multiple trays.</t>
   </si>
   <si>
-    <t>Trough name</t>
-  </si>
-  <si>
-    <t>Mandatory, set equal to cross if necessary.</t>
-  </si>
-  <si>
     <t>Optional. Fecundity pohto count.</t>
   </si>
   <si>
@@ -193,6 +187,18 @@
   </si>
   <si>
     <t>Temperature in Celcius. Eg. 12.3</t>
+  </si>
+  <si>
+    <t>Trough name. E.g. TR1</t>
+  </si>
+  <si>
+    <t>Mandatory, set equal to cross if necessary. E.g. 1</t>
+  </si>
+  <si>
+    <t>Optional. Trough name. E.g. TR1</t>
+  </si>
+  <si>
+    <t>Optional. If filled, the trough column must also be filled. E.g. 1</t>
   </si>
 </sst>
 </file>
@@ -325,15 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -343,7 +340,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,12 +634,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -669,32 +677,32 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -708,11 +716,12 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O3"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
@@ -724,12 +733,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="13"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="9"/>
       <c r="N1" t="s">
         <v>20</v>
       </c>
@@ -781,51 +790,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>46</v>
+      <c r="O3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -848,7 +857,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="A3:R3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,17 +876,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="L1" s="7" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -936,59 +945,59 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="N3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="P3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="Q3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>38</v>
+      <c r="R3" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1014,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1033,23 +1045,23 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
+      <c r="F3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
